--- a/data/trans_orig/Q20C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.798012743001144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.659044341683193</v>
+        <v>9.65904434168319</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>5.611549389122496</v>
@@ -693,7 +693,7 @@
         <v>7.982645473872822</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>10.80221235884486</v>
+        <v>10.80221235884487</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.718625512062758</v>
+        <v>6.488546527339075</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.403546684643219</v>
+        <v>3.386568123373551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.678702755534923</v>
+        <v>4.57028232322924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.519076441598425</v>
+        <v>5.589878181073482</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.675595146060862</v>
+        <v>3.754706470383467</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.790278255440352</v>
+        <v>3.917107148678075</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.790765815634018</v>
+        <v>5.918224342542698</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.595345805486346</v>
+        <v>6.460343349125636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.770605040783978</v>
+        <v>5.504686788626579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.047773013159254</v>
+        <v>4.237601926404378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5.924484905586931</v>
+        <v>5.944111209174558</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.253348904847357</v>
+        <v>6.869033734577585</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>37.71345275412764</v>
+        <v>39.57892464275526</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.82974722147395</v>
+        <v>10.17594104327661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.2528504358044</v>
+        <v>14.27307490132649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.11699673072007</v>
+        <v>16.51900352133096</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.947685396207357</v>
+        <v>7.579780554177177</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.674839337761535</v>
+        <v>7.795216220960868</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.10622439055118</v>
+        <v>12.04549387876734</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.37990524220994</v>
+        <v>25.85571771591533</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.59497470644587</v>
+        <v>17.52938700126126</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.7728914199334</v>
+        <v>7.815144968666525</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11.5604463739555</v>
+        <v>10.8917567398834</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.87823933489197</v>
+        <v>17.07663885489292</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>12.3684029056741</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.710293785018407</v>
+        <v>5.710293785018408</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>3.758733921197976</v>
@@ -817,7 +817,7 @@
         <v>5.39727352476331</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5.496660351693353</v>
+        <v>5.496660351693351</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>5.118527399575987</v>
@@ -829,7 +829,7 @@
         <v>8.239151295872221</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>5.601757954393546</v>
+        <v>5.601757954393547</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.392403171683167</v>
+        <v>4.394214662761944</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.664839534501196</v>
+        <v>2.803468817487311</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.162245348545164</v>
+        <v>5.074962896296761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.552246072204058</v>
+        <v>2.641816761177107</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.363897067241187</v>
+        <v>2.302613835873324</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.300510923315549</v>
+        <v>4.264094691368681</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.597193871705281</v>
+        <v>3.491180785532179</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>4.139548441674505</v>
+        <v>4.166688556210132</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.667073423750614</v>
+        <v>3.644907226083382</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4.298804682255114</v>
+        <v>4.152407241308014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4.829703581275044</v>
+        <v>4.909421428082034</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.840375070461191</v>
+        <v>3.892497224034762</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.8654097168743</v>
+        <v>11.88692760684448</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.372755746569188</v>
+        <v>8.583193082816244</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33.03427271762809</v>
+        <v>32.0537974358175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.09265531518936</v>
+        <v>14.13831136385716</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.207264056809755</v>
+        <v>5.880767182573797</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>9.846638526568883</v>
+        <v>10.21915329273621</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>8.842180435848046</v>
+        <v>8.964103783610071</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.771385177024623</v>
+        <v>7.460795974006746</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.532078719148606</v>
+        <v>7.250088204152438</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8.642292642481825</v>
+        <v>8.417118152082127</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.42875821089392</v>
+        <v>17.60330056559842</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.04144857717047</v>
+        <v>9.687814416623201</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>5.386210372580649</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.947015865634912</v>
+        <v>8.947015865634913</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.946778459051122</v>
@@ -965,7 +965,7 @@
         <v>6.063549506675517</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.179914566824238</v>
+        <v>6.179914566824239</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.342031742788508</v>
+        <v>1.280869098825717</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.076915971389657</v>
+        <v>2.011429628334537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.724037346957614</v>
+        <v>3.70026707310264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.45662918239547</v>
+        <v>3.905464739769584</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.997683557782385</v>
+        <v>1.849017898205227</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.277925122539792</v>
+        <v>3.497164629628251</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.160515952788174</v>
+        <v>4.340200823770531</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.826824914276747</v>
+        <v>1.874201190344346</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.009022800801918</v>
+        <v>1.955307266267306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.24114378609168</v>
+        <v>3.141801408843451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4.322433001035172</v>
+        <v>4.425442062407984</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.50351788423033</v>
+        <v>3.628490779510471</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.441526907441999</v>
+        <v>5.504525996333464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.045341838372599</v>
+        <v>6.157233776403809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.368224288642674</v>
+        <v>9.914609025953002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.131175171347</v>
+        <v>15.18920133894018</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.642627840297314</v>
+        <v>4.69382554289018</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.012995078945642</v>
+        <v>7.032844666620588</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.19875271884658</v>
+        <v>12.69526102839687</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.963737782672812</v>
+        <v>7.707772624826377</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.373627557680125</v>
+        <v>4.278125609693148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5.989892024103823</v>
+        <v>5.99041332355684</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9.302051779280887</v>
+        <v>9.382641387128237</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>10.33018095935653</v>
+        <v>10.29880104822592</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>3.649833710828492</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>5.496270379985789</v>
+        <v>5.496270379985788</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>5.953656560488746</v>
@@ -1101,7 +1101,7 @@
         <v>3.790249815403011</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.025308726885599</v>
+        <v>6.0253087268856</v>
       </c>
     </row>
     <row r="14">
@@ -1115,37 +1115,37 @@
         <v>1.877674529412036</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.404075616358127</v>
+        <v>3.631802994952046</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.290335683240634</v>
+        <v>4.368403457534948</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.495986891781338</v>
+        <v>1.502676523357796</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.850706693163891</v>
+        <v>1.89441222045214</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.215843593472755</v>
+        <v>3.229318833471962</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.283477305600582</v>
+        <v>2.2346140701186</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.589099612912658</v>
+        <v>3.523801301006591</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.239527123140805</v>
+        <v>2.215772192730515</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>4.330259863062621</v>
+        <v>4.346782692660881</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.13327941120913</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.6072360992551</v>
+        <v>14.58712119303191</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.01068539144554</v>
+        <v>10.23894878347247</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>6</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.464801855020887</v>
+        <v>7.010000825818516</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5.749732584339609</v>
+        <v>5.680709545657817</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>9.202681508007597</v>
+        <v>9.978824690979197</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.30052347753806</v>
+        <v>16.85272476204836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10.52754752690941</v>
+        <v>10.17424935514555</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5.594867455419736</v>
+        <v>5.506239859443739</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>8.569815579088834</v>
+        <v>8.70999479241388</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>6.287282722088268</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>6.029869837299547</v>
+        <v>6.029869837299548</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>5.349121315762686</v>
@@ -1237,7 +1237,7 @@
         <v>7.120452757724022</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>6.904565662109886</v>
+        <v>6.904565662109883</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.89299966298296</v>
+        <v>5.139572512069681</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.063993603897839</v>
+        <v>4.055432992212985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.573838418491724</v>
+        <v>5.621361354353479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.632666083606226</v>
+        <v>5.650059365136125</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.044455610717643</v>
+        <v>3.025332027409719</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.472040841686251</v>
+        <v>4.470541497295573</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.958348351847587</v>
+        <v>4.860206877520444</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.629701856592745</v>
+        <v>4.66958993940337</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.153185817579416</v>
+        <v>4.2518907282009</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4.603107830476437</v>
+        <v>4.564397349359282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5.730632421772833</v>
+        <v>5.798048064847917</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>5.523077133756371</v>
+        <v>5.507012667610096</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.43175847183978</v>
+        <v>12.65488297389323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.57447700555607</v>
+        <v>7.540923239571343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.94929673938495</v>
+        <v>15.42175782616814</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.09901659411146</v>
+        <v>10.65314998677656</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.064564696923519</v>
+        <v>5.102483003525172</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.016745122395586</v>
+        <v>6.997508564011495</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.142741666847714</v>
+        <v>7.997831207279748</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.386089676577363</v>
+        <v>9.016136678282249</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.211078008742156</v>
+        <v>7.643890207379107</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.647671056948028</v>
+        <v>6.651410381990642</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10.00901457636706</v>
+        <v>10.1811921456307</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.893469715726489</v>
+        <v>8.916901967906419</v>
       </c>
     </row>
     <row r="19">
